--- a/biology/Neurosciences/John_Bates_(neurophysiologiste)/John_Bates_(neurophysiologiste).xlsx
+++ b/biology/Neurosciences/John_Bates_(neurophysiologiste)/John_Bates_(neurophysiologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Alexander Vincent Bates (1918-1993[1]) est un neurophysiologiste anglais ayant fait partie du personnel de l'Hôpital neurologique de Queen's Square de 1946 jusqu'à sa retraite[2]. Il y dirige le laboratoire d'électroencéphalographie et étudie notamment les liens entre l'EEG et les mouvements volontaires chez l'homme.
-En 1949, il fonde le Ratio Club, un club de restauration composé de scientifiques britanniques  ayant en commun le même intérêt pour la cybernétique[3]. 
-La documentation sur Bates et le Ratio Club est conservée à la bibliothèque Wellcome[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Alexander Vincent Bates (1918-1993) est un neurophysiologiste anglais ayant fait partie du personnel de l'Hôpital neurologique de Queen's Square de 1946 jusqu'à sa retraite. Il y dirige le laboratoire d'électroencéphalographie et étudie notamment les liens entre l'EEG et les mouvements volontaires chez l'homme.
+En 1949, il fonde le Ratio Club, un club de restauration composé de scientifiques britanniques  ayant en commun le même intérêt pour la cybernétique. 
+La documentation sur Bates et le Ratio Club est conservée à la bibliothèque Wellcome. 
 </t>
         </is>
       </c>
